--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Column</t>
   </si>
   <si>
-    <t>Annual Return</t>
-  </si>
-  <si>
     <t>Max Drawdown</t>
-  </si>
-  <si>
-    <t>Return Drawdown Ratio</t>
-  </si>
-  <si>
-    <t>Annual Volatility</t>
   </si>
   <si>
     <t>Sharpe Ratio</t>
@@ -413,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,174 +423,102 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2">
+        <v>0.2990053028573651</v>
+      </c>
+      <c r="C2">
+        <v>1.270938597690218</v>
+      </c>
+      <c r="D2">
+        <v>-0.5560333183063125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3">
+        <v>0.2724585341234245</v>
+      </c>
+      <c r="C3">
+        <v>1.438877794911112</v>
+      </c>
+      <c r="D3">
+        <v>-0.3442063312288584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>0.2852771613304267</v>
+      </c>
+      <c r="C4">
+        <v>1.345343293046693</v>
+      </c>
+      <c r="D4">
+        <v>-0.5257223776824117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.08457837314201155</v>
-      </c>
-      <c r="C2">
-        <v>0.2861051121258296</v>
-      </c>
-      <c r="D2">
-        <v>0.2956199297299303</v>
-      </c>
-      <c r="E2">
-        <v>0.1579738789411918</v>
-      </c>
-      <c r="F2">
-        <v>0.5353946722641225</v>
-      </c>
-      <c r="G2">
-        <v>-0.1036062215189545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>0.4213378518119894</v>
+      </c>
+      <c r="C5">
+        <v>1.455217700424759</v>
+      </c>
+      <c r="D5">
+        <v>-0.4606489599839384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0.1119036780467861</v>
-      </c>
-      <c r="C3">
-        <v>0.3996912385850989</v>
-      </c>
-      <c r="D3">
-        <v>0.2799753090483632</v>
-      </c>
-      <c r="E3">
-        <v>0.2159888376338762</v>
-      </c>
-      <c r="F3">
-        <v>0.5180993576921537</v>
-      </c>
-      <c r="G3">
-        <v>-0.002818107717709562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>0.1796597394427293</v>
+      </c>
+      <c r="C6">
+        <v>2.883923977109168</v>
+      </c>
+      <c r="D6">
+        <v>0.3961028588021778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0.1936451629840252</v>
-      </c>
-      <c r="C4">
-        <v>0.2780964259240856</v>
-      </c>
-      <c r="D4">
-        <v>0.6963238104932936</v>
-      </c>
-      <c r="E4">
-        <v>0.2148553404801785</v>
-      </c>
-      <c r="F4">
-        <v>0.901281590447085</v>
-      </c>
-      <c r="G4">
-        <v>0.2758659451604093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>0.1737811320456195</v>
+      </c>
+      <c r="C7">
+        <v>3.260268084967121</v>
+      </c>
+      <c r="D7">
+        <v>1.150346251753459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0.139333856647001</v>
-      </c>
-      <c r="C5">
-        <v>0.2539055388568661</v>
-      </c>
-      <c r="D5">
-        <v>0.5487625723893623</v>
-      </c>
-      <c r="E5">
-        <v>0.2516158526302802</v>
-      </c>
-      <c r="F5">
-        <v>0.5537562724703824</v>
-      </c>
-      <c r="G5">
-        <v>0.07851133315362704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.05542615853399879</v>
-      </c>
-      <c r="C6">
-        <v>0.3504395667481591</v>
-      </c>
-      <c r="D6">
-        <v>0.158161816738663</v>
-      </c>
-      <c r="E6">
-        <v>0.1500573721182988</v>
-      </c>
-      <c r="F6">
-        <v>0.3693664479896608</v>
-      </c>
-      <c r="G6">
-        <v>-0.2005329245503068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.07764918622586436</v>
-      </c>
-      <c r="C7">
-        <v>0.2524951213418266</v>
-      </c>
-      <c r="D7">
-        <v>0.3075274714743629</v>
-      </c>
-      <c r="E7">
-        <v>0.158541167764281</v>
-      </c>
-      <c r="F7">
-        <v>0.4897730180801568</v>
-      </c>
-      <c r="G7">
-        <v>-0.1207190467861328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
       <c r="B8">
-        <v>0.1127169159663532</v>
+        <v>0.405583833023075</v>
       </c>
       <c r="C8">
-        <v>0.4055838330230752</v>
+        <v>1.335607398196681</v>
       </c>
       <c r="D8">
-        <v>0.2779127440218761</v>
-      </c>
-      <c r="E8">
-        <v>0.2248092200083775</v>
-      </c>
-      <c r="F8">
-        <v>0.5013892044203209</v>
-      </c>
-      <c r="G8">
         <v>0</v>
       </c>
     </row>

--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjueducn-my.sharepoint.com/personal/3200105467_zju_edu_cn/Documents/Code and Data/CodeSources/Projects/Portfolio Optimization/Hs300-CVaR-Strategy/finding results_hs300/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_608A6139701092474A3C349018F6ECB004D09FFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19208FC-849A-4AC1-BE5B-6A34E75FA803}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Column</t>
   </si>
   <si>
+    <t>Annual Return</t>
+  </si>
+  <si>
     <t>Max Drawdown</t>
+  </si>
+  <si>
+    <t>Return Drawdown Ratio</t>
+  </si>
+  <si>
+    <t>Annual Volatility</t>
   </si>
   <si>
     <t>Sharpe Ratio</t>
@@ -52,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,17 +127,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,102 +453,174 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2990053028573651</v>
+        <v>0.16611748311101571</v>
       </c>
       <c r="C2">
-        <v>1.270938597690218</v>
+        <v>0.4145401135904393</v>
       </c>
       <c r="D2">
-        <v>-0.5560333183063125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.4007271616544637</v>
+      </c>
+      <c r="E2">
+        <v>0.2799439206122013</v>
+      </c>
+      <c r="F2">
+        <v>0.59339557275520816</v>
+      </c>
+      <c r="G2">
+        <v>0.61800585765802529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2724585341234245</v>
+        <v>0.16284705990365961</v>
       </c>
       <c r="C3">
-        <v>1.438877794911112</v>
+        <v>0.34781677327658672</v>
       </c>
       <c r="D3">
-        <v>-0.3442063312288584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.4681978340767432</v>
+      </c>
+      <c r="E3">
+        <v>0.31429524308193041</v>
+      </c>
+      <c r="F3">
+        <v>0.51813402680488119</v>
+      </c>
+      <c r="G3">
+        <v>0.46011550136400092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2852771613304267</v>
+        <v>5.8292677929780552E-2</v>
       </c>
       <c r="C4">
-        <v>1.345343293046693</v>
+        <v>0.62281601752552562</v>
       </c>
       <c r="D4">
-        <v>-0.5257223776824117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.3595341624930939E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.31720468521247341</v>
+      </c>
+      <c r="F4">
+        <v>0.18376991465537251</v>
+      </c>
+      <c r="G4">
+        <v>-5.5658564536948507E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4213378518119894</v>
+        <v>6.4766763146949957E-2</v>
       </c>
       <c r="C5">
-        <v>1.455217700424759</v>
+        <v>0.69203207131880207</v>
       </c>
       <c r="D5">
-        <v>-0.4606489599839384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.3589250890532077E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.31923270928776382</v>
+      </c>
+      <c r="F5">
+        <v>0.20288260338813749</v>
+      </c>
+      <c r="G5">
+        <v>-1.78098805270561E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1796597394427293</v>
+        <v>8.2261532072339438E-2</v>
       </c>
       <c r="C6">
-        <v>2.883923977109168</v>
+        <v>0.40393005846838181</v>
       </c>
       <c r="D6">
-        <v>0.3961028588021778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.20365291056639351</v>
+      </c>
+      <c r="E6">
+        <v>0.24261926147812371</v>
+      </c>
+      <c r="F6">
+        <v>0.33905606492729651</v>
+      </c>
+      <c r="G6">
+        <v>0.1133009211056597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1737811320456195</v>
+        <v>0.18107481317249691</v>
       </c>
       <c r="C7">
-        <v>3.260268084967121</v>
+        <v>0.43616659820423659</v>
       </c>
       <c r="D7">
-        <v>1.150346251753459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.41515057301042552</v>
+      </c>
+      <c r="E7">
+        <v>0.28554213151395552</v>
+      </c>
+      <c r="F7">
+        <v>0.63414394300564736</v>
+      </c>
+      <c r="G7">
+        <v>0.65787433796017936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.405583833023075</v>
+        <v>6.8449088971811012E-2</v>
       </c>
       <c r="C8">
-        <v>1.335607398196681</v>
+        <v>0.40558383302307499</v>
       </c>
       <c r="D8">
+        <v>0.16876680823694651</v>
+      </c>
+      <c r="E8">
+        <v>0.2269664344445203</v>
+      </c>
+      <c r="F8">
+        <v>0.30158243063267892</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>

--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjueducn-my.sharepoint.com/personal/3200105467_zju_edu_cn/Documents/Code and Data/CodeSources/Projects/Portfolio Optimization/Hs300-CVaR-Strategy/finding results_hs300/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_608A6139701092474A3C349018F6ECB004D09FFB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19208FC-849A-4AC1-BE5B-6A34E75FA803}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7CA62321701092474A3C349278F2D2FA05D06FFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2623CA0E-B68F-4B82-BB41-B311DBE1F3AE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,12 +432,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="20.6328125" customWidth="1"/>
+    <col min="2" max="7" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -468,22 +468,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.16611748311101571</v>
+        <v>0.14047223016766461</v>
       </c>
       <c r="C2">
-        <v>0.4145401135904393</v>
+        <v>0.47911255986763479</v>
       </c>
       <c r="D2">
-        <v>0.4007271616544637</v>
+        <v>0.2931925437447791</v>
       </c>
       <c r="E2">
-        <v>0.2799439206122013</v>
+        <v>0.3126138496449728</v>
       </c>
       <c r="F2">
-        <v>0.59339557275520816</v>
+        <v>0.44934743079103878</v>
       </c>
       <c r="G2">
-        <v>0.61800585765802529</v>
+        <v>0.28792123941828968</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -491,22 +491,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.16284705990365961</v>
+        <v>0.13889203101104239</v>
       </c>
       <c r="C3">
-        <v>0.34781677327658672</v>
+        <v>0.59710065248418609</v>
       </c>
       <c r="D3">
-        <v>0.4681978340767432</v>
+        <v>0.23261075068867201</v>
       </c>
       <c r="E3">
-        <v>0.31429524308193041</v>
+        <v>0.31208977890202722</v>
       </c>
       <c r="F3">
-        <v>0.51813402680488119</v>
+        <v>0.445038704887045</v>
       </c>
       <c r="G3">
-        <v>0.46011550136400092</v>
+        <v>0.24023384457764241</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -514,22 +514,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.8292677929780552E-2</v>
+        <v>8.9615488911080732E-2</v>
       </c>
       <c r="C4">
-        <v>0.62281601752552562</v>
+        <v>0.59683165257182824</v>
       </c>
       <c r="D4">
-        <v>9.3595341624930939E-2</v>
+        <v>0.1501520378902752</v>
       </c>
       <c r="E4">
-        <v>0.31720468521247341</v>
+        <v>0.32256231855021172</v>
       </c>
       <c r="F4">
-        <v>0.18376991465537251</v>
+        <v>0.27782379948738722</v>
       </c>
       <c r="G4">
-        <v>-5.5658564536948507E-2</v>
+        <v>1.565748391301762E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -537,22 +537,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>6.4766763146949957E-2</v>
+        <v>0.1214017740275932</v>
       </c>
       <c r="C5">
-        <v>0.69203207131880207</v>
+        <v>0.6645443287848315</v>
       </c>
       <c r="D5">
-        <v>9.3589250890532077E-2</v>
+        <v>0.18268423755806529</v>
       </c>
       <c r="E5">
-        <v>0.31923270928776382</v>
+        <v>0.37785610320979252</v>
       </c>
       <c r="F5">
-        <v>0.20288260338813749</v>
+        <v>0.32129102321311132</v>
       </c>
       <c r="G5">
-        <v>-1.78098805270561E-2</v>
+        <v>0.13640914333488621</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -560,22 +560,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>8.2261532072339438E-2</v>
+        <v>0.16901442103791389</v>
       </c>
       <c r="C6">
-        <v>0.40393005846838181</v>
+        <v>0.45529551345830388</v>
       </c>
       <c r="D6">
-        <v>0.20365291056639351</v>
+        <v>0.37121916654553688</v>
       </c>
       <c r="E6">
-        <v>0.24261926147812371</v>
+        <v>0.28460205898865859</v>
       </c>
       <c r="F6">
-        <v>0.33905606492729651</v>
+        <v>0.59386225678939686</v>
       </c>
       <c r="G6">
-        <v>0.1133009211056597</v>
+        <v>0.47997659031542439</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -583,22 +583,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.18107481317249691</v>
+        <v>0.14733161073152631</v>
       </c>
       <c r="C7">
-        <v>0.43616659820423659</v>
+        <v>0.45548123837258703</v>
       </c>
       <c r="D7">
-        <v>0.41515057301042552</v>
+        <v>0.32346362115360722</v>
       </c>
       <c r="E7">
-        <v>0.28554213151395552</v>
+        <v>0.29755878894805099</v>
       </c>
       <c r="F7">
-        <v>0.63414394300564736</v>
+        <v>0.49513446150383439</v>
       </c>
       <c r="G7">
-        <v>0.65787433796017936</v>
+        <v>0.32045948616453901</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -606,19 +606,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>6.8449088971811012E-2</v>
+        <v>8.6122148051597458E-2</v>
       </c>
       <c r="C8">
-        <v>0.40558383302307499</v>
+        <v>0.42707493515667699</v>
       </c>
       <c r="D8">
-        <v>0.16876680823694651</v>
+        <v>0.20165582421736511</v>
       </c>
       <c r="E8">
-        <v>0.2269664344445203</v>
+        <v>0.2437992450882969</v>
       </c>
       <c r="F8">
-        <v>0.30158243063267892</v>
+        <v>0.35325026548136579</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjueducn-my.sharepoint.com/personal/3200105467_zju_edu_cn/Documents/Code and Data/CodeSources/Projects/Portfolio Optimization/Hs300-CVaR-Strategy/finding results_hs300/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7CA62321701092474A3C349278F2D2FA05D06FFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2623CA0E-B68F-4B82-BB41-B311DBE1F3AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,25 +121,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +203,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,19 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="7" width="15.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,162 +442,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.14047223016766461</v>
+        <v>0.1977439350858214</v>
       </c>
       <c r="C2">
-        <v>0.47911255986763479</v>
+        <v>0.4793526238258763</v>
       </c>
       <c r="D2">
-        <v>0.2931925437447791</v>
+        <v>0.4125229012153097</v>
       </c>
       <c r="E2">
-        <v>0.3126138496449728</v>
+        <v>0.3117067736253878</v>
       </c>
       <c r="F2">
-        <v>0.44934743079103878</v>
+        <v>0.6343908821290871</v>
       </c>
       <c r="G2">
-        <v>0.28792123941828968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.4657653336146211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.13889203101104239</v>
+        <v>0.2465132165756367</v>
       </c>
       <c r="C3">
-        <v>0.59710065248418609</v>
+        <v>0.3896525374653704</v>
       </c>
       <c r="D3">
-        <v>0.23261075068867201</v>
+        <v>0.632648816248361</v>
       </c>
       <c r="E3">
-        <v>0.31208977890202722</v>
+        <v>0.3270442873221833</v>
       </c>
       <c r="F3">
-        <v>0.445038704887045</v>
+        <v>0.7537609618381366</v>
       </c>
       <c r="G3">
-        <v>0.24023384457764241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.624015102891827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>8.9615488911080732E-2</v>
+        <v>0.1817599339274683</v>
       </c>
       <c r="C4">
-        <v>0.59683165257182824</v>
+        <v>0.5467359187318005</v>
       </c>
       <c r="D4">
-        <v>0.1501520378902752</v>
+        <v>0.3324455696071251</v>
       </c>
       <c r="E4">
-        <v>0.32256231855021172</v>
+        <v>0.3223189644014717</v>
       </c>
       <c r="F4">
-        <v>0.27782379948738722</v>
+        <v>0.5639132474410442</v>
       </c>
       <c r="G4">
-        <v>1.565748391301762E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.3734092584998679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1214017740275932</v>
+        <v>0.2796632997763648</v>
       </c>
       <c r="C5">
-        <v>0.6645443287848315</v>
+        <v>0.39894804554954</v>
       </c>
       <c r="D5">
-        <v>0.18268423755806529</v>
+        <v>0.7010018043606062</v>
       </c>
       <c r="E5">
-        <v>0.37785610320979252</v>
+        <v>0.3462596002339752</v>
       </c>
       <c r="F5">
-        <v>0.32129102321311132</v>
+        <v>0.8076694468179083</v>
       </c>
       <c r="G5">
-        <v>0.13640914333488621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7587916499055586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.16901442103791389</v>
+        <v>0.3263240732595625</v>
       </c>
       <c r="C6">
-        <v>0.45529551345830388</v>
+        <v>0.4440137442688317</v>
       </c>
       <c r="D6">
-        <v>0.37121916654553688</v>
+        <v>0.7349413784407244</v>
       </c>
       <c r="E6">
-        <v>0.28460205898865859</v>
+        <v>0.3425709143552559</v>
       </c>
       <c r="F6">
-        <v>0.59386225678939686</v>
+        <v>0.9525737871638309</v>
       </c>
       <c r="G6">
-        <v>0.47997659031542439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.162872477418221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.14733161073152631</v>
+        <v>0.2413597020577951</v>
       </c>
       <c r="C7">
-        <v>0.45548123837258703</v>
+        <v>0.4045134587374485</v>
       </c>
       <c r="D7">
-        <v>0.32346362115360722</v>
+        <v>0.5966666790546785</v>
       </c>
       <c r="E7">
-        <v>0.29755878894805099</v>
+        <v>0.3150382087314983</v>
       </c>
       <c r="F7">
-        <v>0.49513446150383439</v>
+        <v>0.7661283468745909</v>
       </c>
       <c r="G7">
-        <v>0.32045948616453901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.6820678566003793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>8.6122148051597458E-2</v>
+        <v>0.1136937050299769</v>
       </c>
       <c r="C8">
-        <v>0.42707493515667699</v>
+        <v>0.4270749351566768</v>
       </c>
       <c r="D8">
-        <v>0.20165582421736511</v>
+        <v>0.2662148856576357</v>
       </c>
       <c r="E8">
-        <v>0.2437992450882969</v>
+        <v>0.2479636772664026</v>
       </c>
       <c r="F8">
-        <v>0.35325026548136579</v>
+        <v>0.4585095135035796</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -447,22 +447,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.1977439350858214</v>
+        <v>0.2146635404045303</v>
       </c>
       <c r="C2">
-        <v>0.4793526238258763</v>
+        <v>0.4260859599327734</v>
       </c>
       <c r="D2">
-        <v>0.4125229012153097</v>
+        <v>0.503803365026154</v>
       </c>
       <c r="E2">
-        <v>0.3117067736253878</v>
+        <v>0.3338565899893256</v>
       </c>
       <c r="F2">
-        <v>0.6343908821290871</v>
+        <v>0.6429812884969374</v>
       </c>
       <c r="G2">
-        <v>0.4657653336146211</v>
+        <v>0.5244035891957654</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +470,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2465132165756367</v>
+        <v>0.03706085868486753</v>
       </c>
       <c r="C3">
-        <v>0.3896525374653704</v>
+        <v>0.520237114259285</v>
       </c>
       <c r="D3">
-        <v>0.632648816248361</v>
+        <v>0.07123839816318156</v>
       </c>
       <c r="E3">
-        <v>0.3270442873221833</v>
+        <v>0.2113747048865701</v>
       </c>
       <c r="F3">
-        <v>0.7537609618381366</v>
+        <v>0.1753325153298522</v>
       </c>
       <c r="G3">
-        <v>0.624015102891827</v>
+        <v>-0.2422297574250847</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +493,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1817599339274683</v>
+        <v>0.1329374967800154</v>
       </c>
       <c r="C4">
-        <v>0.5467359187318005</v>
+        <v>0.5991170298677644</v>
       </c>
       <c r="D4">
-        <v>0.3324455696071251</v>
+        <v>0.2218890302773684</v>
       </c>
       <c r="E4">
-        <v>0.3223189644014717</v>
+        <v>0.328663516449118</v>
       </c>
       <c r="F4">
-        <v>0.5639132474410442</v>
+        <v>0.4044790191995531</v>
       </c>
       <c r="G4">
-        <v>0.3734092584998679</v>
+        <v>0.1089266697022256</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +516,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2796632997763648</v>
+        <v>-0.003771555805022531</v>
       </c>
       <c r="C5">
-        <v>0.39894804554954</v>
+        <v>0.5319308873135586</v>
       </c>
       <c r="D5">
-        <v>0.7010018043606062</v>
+        <v>-0.007090311720889602</v>
       </c>
       <c r="E5">
-        <v>0.3462596002339752</v>
+        <v>0.218316640455313</v>
       </c>
       <c r="F5">
-        <v>0.8076694468179083</v>
+        <v>-0.01727562222081063</v>
       </c>
       <c r="G5">
-        <v>0.7587916499055586</v>
+        <v>-0.3655942556010327</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +539,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3263240732595625</v>
+        <v>0.3329633272571904</v>
       </c>
       <c r="C6">
-        <v>0.4440137442688317</v>
+        <v>0.3872888225667823</v>
       </c>
       <c r="D6">
-        <v>0.7349413784407244</v>
+        <v>0.8597287291960916</v>
       </c>
       <c r="E6">
-        <v>0.3425709143552559</v>
+        <v>0.3248017959946963</v>
       </c>
       <c r="F6">
-        <v>0.9525737871638309</v>
+        <v>1.025127728242695</v>
       </c>
       <c r="G6">
-        <v>1.162872477418221</v>
+        <v>1.251570016303698</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +562,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2413597020577951</v>
+        <v>0.001205076006095318</v>
       </c>
       <c r="C7">
-        <v>0.4045134587374485</v>
+        <v>0.5901345117603538</v>
       </c>
       <c r="D7">
-        <v>0.5966666790546785</v>
+        <v>0.002042036149522271</v>
       </c>
       <c r="E7">
-        <v>0.3150382087314983</v>
+        <v>0.2230445264819826</v>
       </c>
       <c r="F7">
-        <v>0.7661283468745909</v>
+        <v>0.005402849489752727</v>
       </c>
       <c r="G7">
-        <v>0.6820678566003793</v>
+        <v>-0.3525815790409893</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,19 +585,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1136937050299769</v>
+        <v>0.1120229630834191</v>
       </c>
       <c r="C8">
-        <v>0.4270749351566768</v>
+        <v>0.4270749351566769</v>
       </c>
       <c r="D8">
-        <v>0.2662148856576357</v>
+        <v>0.2623028275876745</v>
       </c>
       <c r="E8">
-        <v>0.2479636772664026</v>
+        <v>0.2480000904958722</v>
       </c>
       <c r="F8">
-        <v>0.4585095135035796</v>
+        <v>0.4517053314756095</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -447,22 +447,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2146635404045303</v>
+        <v>0.1198533873066325</v>
       </c>
       <c r="C2">
-        <v>0.4260859599327734</v>
+        <v>0.4139713723711329</v>
       </c>
       <c r="D2">
-        <v>0.503803365026154</v>
+        <v>0.289520955567869</v>
       </c>
       <c r="E2">
-        <v>0.3338565899893256</v>
+        <v>0.2696259295067546</v>
       </c>
       <c r="F2">
-        <v>0.6429812884969374</v>
+        <v>0.4445172892899753</v>
       </c>
       <c r="G2">
-        <v>0.5244035891957654</v>
+        <v>0.213712838762116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +470,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03706085868486753</v>
+        <v>0.183912266540714</v>
       </c>
       <c r="C3">
-        <v>0.520237114259285</v>
+        <v>0.3912673019032599</v>
       </c>
       <c r="D3">
-        <v>0.07123839816318156</v>
+        <v>0.4700425147874636</v>
       </c>
       <c r="E3">
-        <v>0.2113747048865701</v>
+        <v>0.2680757100345207</v>
       </c>
       <c r="F3">
-        <v>0.1753325153298522</v>
+        <v>0.6860459924438183</v>
       </c>
       <c r="G3">
-        <v>-0.2422297574250847</v>
+        <v>0.5973123958273245</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +493,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1329374967800154</v>
+        <v>0.1443371417725348</v>
       </c>
       <c r="C4">
-        <v>0.5991170298677644</v>
+        <v>0.475383179433249</v>
       </c>
       <c r="D4">
-        <v>0.2218890302773684</v>
+        <v>0.3036227363883873</v>
       </c>
       <c r="E4">
-        <v>0.328663516449118</v>
+        <v>0.2753940063834147</v>
       </c>
       <c r="F4">
-        <v>0.4044790191995531</v>
+        <v>0.5241114128372959</v>
       </c>
       <c r="G4">
-        <v>0.1089266697022256</v>
+        <v>0.3836820702087648</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +516,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.003771555805022531</v>
+        <v>0.1681174067809175</v>
       </c>
       <c r="C5">
-        <v>0.5319308873135586</v>
+        <v>0.3971553622504124</v>
       </c>
       <c r="D5">
-        <v>-0.007090311720889602</v>
+        <v>0.4233038824612845</v>
       </c>
       <c r="E5">
-        <v>0.218316640455313</v>
+        <v>0.2729559299574572</v>
       </c>
       <c r="F5">
-        <v>-0.01727562222081063</v>
+        <v>0.6159141030829417</v>
       </c>
       <c r="G5">
-        <v>-0.3655942556010327</v>
+        <v>0.5148972645455105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +539,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3329633272571904</v>
+        <v>0.2233033924173322</v>
       </c>
       <c r="C6">
-        <v>0.3872888225667823</v>
+        <v>0.364247191398439</v>
       </c>
       <c r="D6">
-        <v>0.8597287291960916</v>
+        <v>0.6130545346417439</v>
       </c>
       <c r="E6">
-        <v>0.3248017959946963</v>
+        <v>0.2361808912488156</v>
       </c>
       <c r="F6">
-        <v>1.025127728242695</v>
+        <v>0.945476118904484</v>
       </c>
       <c r="G6">
-        <v>1.251570016303698</v>
+        <v>0.9477623214121268</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +562,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001205076006095318</v>
+        <v>0.2423349711360594</v>
       </c>
       <c r="C7">
-        <v>0.5901345117603538</v>
+        <v>0.3711601536312714</v>
       </c>
       <c r="D7">
-        <v>0.002042036149522271</v>
+        <v>0.6529121425485958</v>
       </c>
       <c r="E7">
-        <v>0.2230445264819826</v>
+        <v>0.2787275852802502</v>
       </c>
       <c r="F7">
-        <v>0.005402849489752727</v>
+        <v>0.8694330376105422</v>
       </c>
       <c r="G7">
-        <v>-0.3525815790409893</v>
+        <v>0.9718124667381434</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,19 +585,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1120229630834191</v>
+        <v>0.0888986359742272</v>
       </c>
       <c r="C8">
-        <v>0.4270749351566769</v>
+        <v>0.4055838330230752</v>
       </c>
       <c r="D8">
-        <v>0.2623028275876745</v>
+        <v>0.2191868332413768</v>
       </c>
       <c r="E8">
-        <v>0.2480000904958722</v>
+        <v>0.2265058704378156</v>
       </c>
       <c r="F8">
-        <v>0.4517053314756095</v>
+        <v>0.3924782867763829</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/finding results_hs300/results/evaluation results.xlsx
+++ b/finding results_hs300/results/evaluation results.xlsx
@@ -447,22 +447,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.1198533873066325</v>
+        <v>0.1523190481459897</v>
       </c>
       <c r="C2">
-        <v>0.4139713723711329</v>
+        <v>0.6314098604277283</v>
       </c>
       <c r="D2">
-        <v>0.289520955567869</v>
+        <v>0.2412364102815976</v>
       </c>
       <c r="E2">
-        <v>0.2696259295067546</v>
+        <v>0.3303291919746245</v>
       </c>
       <c r="F2">
-        <v>0.4445172892899753</v>
+        <v>0.4611128893437026</v>
       </c>
       <c r="G2">
-        <v>0.213712838762116</v>
+        <v>0.1497360053147926</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +470,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.183912266540714</v>
+        <v>0.1614005562186687</v>
       </c>
       <c r="C3">
-        <v>0.3912673019032599</v>
+        <v>0.6165931337573007</v>
       </c>
       <c r="D3">
-        <v>0.4700425147874636</v>
+        <v>0.2617618448573222</v>
       </c>
       <c r="E3">
-        <v>0.2680757100345207</v>
+        <v>0.3186867745792998</v>
       </c>
       <c r="F3">
-        <v>0.6860459924438183</v>
+        <v>0.5064551437119863</v>
       </c>
       <c r="G3">
-        <v>0.5973123958273245</v>
+        <v>0.1993559364047807</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +493,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1443371417725348</v>
+        <v>0.2849677515163722</v>
       </c>
       <c r="C4">
-        <v>0.475383179433249</v>
+        <v>0.4100835558046769</v>
       </c>
       <c r="D4">
-        <v>0.3036227363883873</v>
+        <v>0.6949016791400008</v>
       </c>
       <c r="E4">
-        <v>0.2753940063834147</v>
+        <v>0.3138242136957355</v>
       </c>
       <c r="F4">
-        <v>0.5241114128372959</v>
+        <v>0.9080489620621157</v>
       </c>
       <c r="G4">
-        <v>0.3836820702087648</v>
+        <v>0.9154516320294577</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +516,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1681174067809175</v>
+        <v>0.19568868863975</v>
       </c>
       <c r="C5">
-        <v>0.3971553622504124</v>
+        <v>0.604049037589189</v>
       </c>
       <c r="D5">
-        <v>0.4233038824612845</v>
+        <v>0.3239615932851415</v>
       </c>
       <c r="E5">
-        <v>0.2729559299574572</v>
+        <v>0.3064128378878567</v>
       </c>
       <c r="F5">
-        <v>0.6159141030829417</v>
+        <v>0.6386438962174606</v>
       </c>
       <c r="G5">
-        <v>0.5148972645455105</v>
+        <v>0.402889475986037</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +539,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2233033924173322</v>
+        <v>0.2979691551696637</v>
       </c>
       <c r="C6">
-        <v>0.364247191398439</v>
+        <v>0.3481227578209652</v>
       </c>
       <c r="D6">
-        <v>0.6130545346417439</v>
+        <v>0.8559312727348471</v>
       </c>
       <c r="E6">
-        <v>0.2361808912488156</v>
+        <v>0.3136841265877635</v>
       </c>
       <c r="F6">
-        <v>0.945476118904484</v>
+        <v>0.9499019233486683</v>
       </c>
       <c r="G6">
-        <v>0.9477623214121268</v>
+        <v>1.102878271908627</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +562,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2423349711360594</v>
+        <v>0.4110979854762242</v>
       </c>
       <c r="C7">
-        <v>0.3711601536312714</v>
+        <v>0.3026221196633313</v>
       </c>
       <c r="D7">
-        <v>0.6529121425485958</v>
+        <v>1.3584531954689</v>
       </c>
       <c r="E7">
-        <v>0.2787275852802502</v>
+        <v>0.3275711019582546</v>
       </c>
       <c r="F7">
-        <v>0.8694330376105422</v>
+        <v>1.254988559792476</v>
       </c>
       <c r="G7">
-        <v>0.9718124667381434</v>
+        <v>1.53959888297929</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,19 +585,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0888986359742272</v>
+        <v>0.1220742584722783</v>
       </c>
       <c r="C8">
-        <v>0.4055838330230752</v>
+        <v>0.4270749351566768</v>
       </c>
       <c r="D8">
-        <v>0.2191868332413768</v>
+        <v>0.2858380308071558</v>
       </c>
       <c r="E8">
-        <v>0.2265058704378156</v>
+        <v>0.2491614408934512</v>
       </c>
       <c r="F8">
-        <v>0.3924782867763829</v>
+        <v>0.4899404098585255</v>
       </c>
       <c r="G8">
         <v>0</v>
